--- a/assignment5/table2.xlsx
+++ b/assignment5/table2.xlsx
@@ -1,28 +1,196 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+  <si>
+    <t>Problem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USA(51 states)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sudoku</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1min 12.969s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>larger than 5min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.470s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.010s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.020s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back-tracking with AC3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.060s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.860s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min-conflict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can not find an answer in a limit time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can not find an answer in a limit time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.001s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.020s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back-tracking with forward-check and Degree heuristic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.010s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back-tracking with AC3 and Degree heuristic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.050s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.850s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back-tracking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back-tracking with forward-check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back-tracking with MRV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back-tracking with forward-check and MRV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back-tracking with AC3 and MRV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back-tracking with LCV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back-tracking with forward-check and LCV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back-tracking with AC3 and LCV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1min 31.039s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.020s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.001s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.010s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.090s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.350s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.130s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.310s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.109s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back-tracking with Degree heuristic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -46,19 +214,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,37 +519,267 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.21875" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" customWidth="1"/>
+    <col min="11" max="12" width="21.21875" customWidth="1"/>
+    <col min="13" max="13" width="21" customWidth="1"/>
+    <col min="14" max="14" width="21.109375" customWidth="1"/>
+    <col min="15" max="15" width="19.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+    </row>
+    <row r="2" spans="1:39" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+    </row>
+    <row r="3" spans="1:39" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>